--- a/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/03_バッチ設計/★バッチ一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/03_バッチ設計/★バッチ一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="7" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">バッチ一覧!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -206,17 +206,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>B0001</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メール配信バッチ</t>
-    <rPh sb="3" eb="5">
-      <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>バッチ一覧</t>
     <rPh sb="3" eb="5">
       <t>イチラン</t>
@@ -234,11 +223,42 @@
     <t>バッチID</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>月報初期データ登録</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月報メール配信</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッポウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B002</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B001</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.0&quot;版&quot;\ "/>
@@ -1078,6 +1098,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,173 +1275,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,12 +1308,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1335,7 +1358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1368,9 +1391,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,6 +1443,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1591,209 +1648,209 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="1"/>
+    <col min="1" max="16384" width="3.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="str">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="109" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="113" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="60"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="99"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="str">
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="102">
         <v>42591</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="69"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="107"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="66" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="66" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>バッチ一覧</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="70"/>
-    </row>
-    <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="108"/>
+    </row>
+    <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1847,7 +1904,7 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1903,7 +1960,7 @@
       <c r="AY5" s="10"/>
       <c r="AZ5" s="11"/>
     </row>
-    <row r="6" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1957,1103 +2014,1103 @@
       <c r="AY6" s="10"/>
       <c r="AZ6" s="11"/>
     </row>
-    <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="73" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="73" t="s">
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="75"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="94"/>
       <c r="AZ7" s="11"/>
     </row>
-    <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="87"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="86"/>
       <c r="AZ8" s="12"/>
     </row>
-    <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="89">
+      <c r="B9" s="66">
         <v>1</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69">
         <v>42591</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98" t="s">
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="97"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="77"/>
       <c r="AZ9" s="12"/>
     </row>
-    <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="97"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="77"/>
       <c r="AZ10" s="12"/>
     </row>
-    <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="96"/>
-      <c r="AV11" s="96"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="97"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="77"/>
       <c r="AZ11" s="12"/>
     </row>
-    <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="96"/>
-      <c r="AT12" s="96"/>
-      <c r="AU12" s="96"/>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="96"/>
-      <c r="AX12" s="96"/>
-      <c r="AY12" s="97"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="77"/>
       <c r="AZ12" s="12"/>
     </row>
-    <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="97"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="77"/>
       <c r="AZ13" s="12"/>
     </row>
-    <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="96"/>
-      <c r="AS14" s="96"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="96"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="96"/>
-      <c r="AX14" s="96"/>
-      <c r="AY14" s="97"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="77"/>
       <c r="AZ14" s="12"/>
     </row>
-    <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="96"/>
-      <c r="AS15" s="96"/>
-      <c r="AT15" s="96"/>
-      <c r="AU15" s="96"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="96"/>
-      <c r="AX15" s="96"/>
-      <c r="AY15" s="97"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="77"/>
       <c r="AZ15" s="12"/>
     </row>
-    <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="96"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="96"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="97"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="77"/>
       <c r="AZ16" s="12"/>
     </row>
-    <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="96"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="96"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="96"/>
-      <c r="AX17" s="96"/>
-      <c r="AY17" s="97"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="77"/>
       <c r="AZ17" s="12"/>
     </row>
-    <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="96"/>
-      <c r="AR18" s="96"/>
-      <c r="AS18" s="96"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="96"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="97"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="77"/>
       <c r="AZ18" s="12"/>
     </row>
-    <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
-      <c r="AR19" s="96"/>
-      <c r="AS19" s="96"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="96"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="97"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="77"/>
       <c r="AZ19" s="12"/>
     </row>
-    <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="96"/>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
-      <c r="AR20" s="96"/>
-      <c r="AS20" s="96"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="96"/>
-      <c r="AV20" s="96"/>
-      <c r="AW20" s="96"/>
-      <c r="AX20" s="96"/>
-      <c r="AY20" s="97"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="77"/>
       <c r="AZ20" s="12"/>
     </row>
-    <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="97"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="77"/>
       <c r="AZ21" s="12"/>
     </row>
-    <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="97"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="77"/>
       <c r="AZ22" s="12"/>
     </row>
-    <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="96"/>
-      <c r="AS23" s="96"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="96"/>
-      <c r="AV23" s="96"/>
-      <c r="AW23" s="96"/>
-      <c r="AX23" s="96"/>
-      <c r="AY23" s="97"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="77"/>
       <c r="AZ23" s="12"/>
     </row>
-    <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="96"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
-      <c r="AR24" s="96"/>
-      <c r="AS24" s="96"/>
-      <c r="AT24" s="96"/>
-      <c r="AU24" s="96"/>
-      <c r="AV24" s="96"/>
-      <c r="AW24" s="96"/>
-      <c r="AX24" s="96"/>
-      <c r="AY24" s="97"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="77"/>
       <c r="AZ24" s="12"/>
     </row>
-    <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="96"/>
-      <c r="AN25" s="96"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="96"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="96"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="96"/>
-      <c r="AX25" s="96"/>
-      <c r="AY25" s="97"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="77"/>
       <c r="AZ25" s="12"/>
     </row>
-    <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="112"/>
-      <c r="AM26" s="112"/>
-      <c r="AN26" s="112"/>
-      <c r="AO26" s="112"/>
-      <c r="AP26" s="112"/>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="112"/>
-      <c r="AT26" s="112"/>
-      <c r="AU26" s="112"/>
-      <c r="AV26" s="112"/>
-      <c r="AW26" s="112"/>
-      <c r="AX26" s="112"/>
-      <c r="AY26" s="113"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="65"/>
       <c r="AZ26" s="13"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3107,7 +3164,7 @@
       <c r="AY27" s="15"/>
       <c r="AZ27" s="16"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3163,6 +3220,91 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3175,95 +3317,10 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
@@ -3282,212 +3339,212 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="22"/>
+    <col min="1" max="16384" width="3.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="str">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="109" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>バッチ一覧</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="113" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="58"/>
+      <c r="AY1" s="98"/>
       <c r="AZ1" s="114"/>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+    <row r="2" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="str">
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="102">
         <v>42591</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
       <c r="AM2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="69"/>
-    </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="107"/>
+    </row>
+    <row r="3" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="66" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="66" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>バッチ一覧</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="70"/>
-    </row>
-    <row r="4" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="108"/>
+    </row>
+    <row r="4" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
@@ -3499,7 +3556,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3510,7 +3567,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
@@ -3553,7 +3610,7 @@
       <c r="BA4" s="20"/>
       <c r="BB4" s="20"/>
     </row>
-    <row r="5" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -3609,7 +3666,7 @@
       <c r="BA5" s="20"/>
       <c r="BB5" s="20"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="39"/>
@@ -3663,10 +3720,10 @@
       <c r="AY6" s="41"/>
       <c r="AZ6" s="42"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="str">
-        <f>IF(L7="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
+        <f ca="1">IF(G7="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>1</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>28</v>
@@ -3676,7 +3733,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -3687,7 +3744,7 @@
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
       <c r="P7" s="46" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="44"/>
       <c r="R7" s="44"/>
@@ -3726,17 +3783,21 @@
       <c r="AY7" s="41"/>
       <c r="AZ7" s="42"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="str">
-        <f>IF(L8="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B8" s="43"/>
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37">
+        <f ca="1">IF(G8="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
@@ -3745,7 +3806,9 @@
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
-      <c r="P8" s="38"/>
+      <c r="P8" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
@@ -3783,9 +3846,9 @@
       <c r="AY8" s="44"/>
       <c r="AZ8" s="47"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="str">
-        <f>IF(L9="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G9="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B9" s="43"/>
@@ -3840,9 +3903,9 @@
       <c r="AY9" s="44"/>
       <c r="AZ9" s="47"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="str">
-        <f>IF(L10="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G10="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B10" s="43"/>
@@ -3897,9 +3960,9 @@
       <c r="AY10" s="44"/>
       <c r="AZ10" s="47"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="str">
-        <f>IF(L11="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G11="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B11" s="43"/>
@@ -3954,9 +4017,9 @@
       <c r="AY11" s="44"/>
       <c r="AZ11" s="47"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="str">
-        <f>IF(L12="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G12="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B12" s="43"/>
@@ -4011,9 +4074,9 @@
       <c r="AY12" s="44"/>
       <c r="AZ12" s="47"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="str">
-        <f>IF(L13="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G13="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B13" s="43"/>
@@ -4068,9 +4131,9 @@
       <c r="AY13" s="44"/>
       <c r="AZ13" s="47"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="str">
-        <f>IF(L14="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G14="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B14" s="43"/>
@@ -4125,9 +4188,9 @@
       <c r="AY14" s="44"/>
       <c r="AZ14" s="47"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="str">
-        <f>IF(L15="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G15="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B15" s="43"/>
@@ -4182,9 +4245,9 @@
       <c r="AY15" s="44"/>
       <c r="AZ15" s="47"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="str">
-        <f>IF(L16="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G16="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B16" s="43"/>
@@ -4239,9 +4302,9 @@
       <c r="AY16" s="44"/>
       <c r="AZ16" s="47"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="str">
-        <f>IF(L17="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G17="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B17" s="43"/>
@@ -4296,9 +4359,9 @@
       <c r="AY17" s="44"/>
       <c r="AZ17" s="47"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="str">
-        <f>IF(L18="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G18="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B18" s="43"/>
@@ -4353,9 +4416,9 @@
       <c r="AY18" s="44"/>
       <c r="AZ18" s="47"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="str">
-        <f>IF(L19="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G19="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B19" s="43"/>
@@ -4410,9 +4473,9 @@
       <c r="AY19" s="44"/>
       <c r="AZ19" s="47"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="str">
-        <f>IF(L20="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G20="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B20" s="43"/>
@@ -4467,9 +4530,9 @@
       <c r="AY20" s="44"/>
       <c r="AZ20" s="47"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="str">
-        <f>IF(L21="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G21="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B21" s="43"/>
@@ -4524,9 +4587,9 @@
       <c r="AY21" s="44"/>
       <c r="AZ21" s="47"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="str">
-        <f>IF(L22="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G22="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B22" s="43"/>
@@ -4582,9 +4645,9 @@
       <c r="AZ22" s="47"/>
       <c r="BB22" s="23"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="str">
-        <f>IF(L23="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G23="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B23" s="43"/>
@@ -4639,9 +4702,9 @@
       <c r="AY23" s="44"/>
       <c r="AZ23" s="47"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="str">
-        <f>IF(L24="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G24="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B24" s="43"/>
@@ -4696,9 +4759,9 @@
       <c r="AY24" s="44"/>
       <c r="AZ24" s="47"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="str">
-        <f>IF(L25="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G25="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B25" s="43"/>
@@ -4754,9 +4817,9 @@
       <c r="AZ25" s="47"/>
       <c r="BB25" s="23"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="str">
-        <f>IF(L26="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G26="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B26" s="43"/>
@@ -4812,9 +4875,9 @@
       <c r="AZ26" s="47"/>
       <c r="BB26" s="23"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="str">
-        <f>IF(L27="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G27="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B27" s="43"/>
@@ -4869,9 +4932,9 @@
       <c r="AY27" s="44"/>
       <c r="AZ27" s="47"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="str">
-        <f>IF(L28="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G28="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B28" s="43"/>
@@ -4926,9 +4989,9 @@
       <c r="AY28" s="44"/>
       <c r="AZ28" s="47"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="str">
-        <f>IF(L29="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G29="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B29" s="43"/>
@@ -4983,9 +5046,9 @@
       <c r="AY29" s="44"/>
       <c r="AZ29" s="47"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="str">
-        <f>IF(L30="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G30="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B30" s="43"/>
@@ -5040,9 +5103,9 @@
       <c r="AY30" s="44"/>
       <c r="AZ30" s="47"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="str">
-        <f>IF(L31="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G31="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B31" s="43"/>
@@ -5097,9 +5160,9 @@
       <c r="AY31" s="44"/>
       <c r="AZ31" s="47"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="str">
-        <f>IF(L32="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G32="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B32" s="43"/>
@@ -5154,9 +5217,9 @@
       <c r="AY32" s="44"/>
       <c r="AZ32" s="47"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="str">
-        <f>IF(L33="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G33="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B33" s="43"/>
@@ -5211,9 +5274,9 @@
       <c r="AY33" s="44"/>
       <c r="AZ33" s="47"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="str">
-        <f>IF(L34="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G34="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B34" s="43"/>
@@ -5268,9 +5331,9 @@
       <c r="AY34" s="44"/>
       <c r="AZ34" s="47"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="str">
-        <f>IF(L35="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G35="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B35" s="43"/>
@@ -5325,9 +5388,9 @@
       <c r="AY35" s="44"/>
       <c r="AZ35" s="47"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="str">
-        <f>IF(L36="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G36="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B36" s="43"/>
@@ -5382,9 +5445,9 @@
       <c r="AY36" s="44"/>
       <c r="AZ36" s="47"/>
     </row>
-    <row r="37" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="str">
-        <f>IF(L37="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G37="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B37" s="43"/>
@@ -5439,9 +5502,9 @@
       <c r="AY37" s="44"/>
       <c r="AZ37" s="47"/>
     </row>
-    <row r="38" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="str">
-        <f>IF(L38="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G38="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B38" s="43"/>
@@ -5496,9 +5559,9 @@
       <c r="AY38" s="44"/>
       <c r="AZ38" s="47"/>
     </row>
-    <row r="39" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="str">
-        <f>IF(L39="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G39="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B39" s="43"/>
@@ -5553,9 +5616,9 @@
       <c r="AY39" s="44"/>
       <c r="AZ39" s="47"/>
     </row>
-    <row r="40" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="str">
-        <f>IF(L40="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G40="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B40" s="43"/>
@@ -5610,9 +5673,9 @@
       <c r="AY40" s="44"/>
       <c r="AZ40" s="47"/>
     </row>
-    <row r="41" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="str">
-        <f>IF(L41="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G41="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B41" s="43"/>
@@ -5667,9 +5730,9 @@
       <c r="AY41" s="44"/>
       <c r="AZ41" s="47"/>
     </row>
-    <row r="42" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="str">
-        <f>IF(L42="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G42="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B42" s="43"/>
@@ -5724,9 +5787,9 @@
       <c r="AY42" s="44"/>
       <c r="AZ42" s="47"/>
     </row>
-    <row r="43" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="str">
-        <f>IF(L43="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G43="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B43" s="43"/>
@@ -5781,9 +5844,9 @@
       <c r="AY43" s="44"/>
       <c r="AZ43" s="47"/>
     </row>
-    <row r="44" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="str">
-        <f>IF(L44="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G44="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B44" s="43"/>
@@ -5838,9 +5901,9 @@
       <c r="AY44" s="44"/>
       <c r="AZ44" s="47"/>
     </row>
-    <row r="45" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="str">
-        <f>IF(L45="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G45="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B45" s="43"/>
@@ -5895,9 +5958,9 @@
       <c r="AY45" s="44"/>
       <c r="AZ45" s="47"/>
     </row>
-    <row r="46" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="str">
-        <f>IF(L46="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G46="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B46" s="43"/>
@@ -5952,9 +6015,9 @@
       <c r="AY46" s="44"/>
       <c r="AZ46" s="47"/>
     </row>
-    <row r="47" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="str">
-        <f>IF(L47="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G47="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B47" s="43"/>
@@ -6009,9 +6072,9 @@
       <c r="AY47" s="44"/>
       <c r="AZ47" s="47"/>
     </row>
-    <row r="48" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="str">
-        <f>IF(L48="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G48="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B48" s="43"/>
@@ -6067,9 +6130,9 @@
       <c r="AZ48" s="47"/>
       <c r="BB48" s="23"/>
     </row>
-    <row r="49" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="str">
-        <f>IF(L49="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G49="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B49" s="43"/>
@@ -6125,9 +6188,9 @@
       <c r="AZ49" s="47"/>
       <c r="BB49" s="23"/>
     </row>
-    <row r="50" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="str">
-        <f>IF(L50="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G50="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B50" s="43"/>
@@ -6183,9 +6246,9 @@
       <c r="AZ50" s="47"/>
       <c r="BB50" s="23"/>
     </row>
-    <row r="51" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="str">
-        <f>IF(L51="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G51="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B51" s="43"/>
@@ -6241,9 +6304,9 @@
       <c r="AZ51" s="47"/>
       <c r="BB51" s="23"/>
     </row>
-    <row r="52" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="str">
-        <f>IF(L52="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G52="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B52" s="43"/>
@@ -6299,9 +6362,9 @@
       <c r="AZ52" s="47"/>
       <c r="BB52" s="23"/>
     </row>
-    <row r="53" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37" t="str">
-        <f>IF(L53="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G53="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B53" s="43"/>
@@ -6357,9 +6420,9 @@
       <c r="AZ53" s="47"/>
       <c r="BB53" s="23"/>
     </row>
-    <row r="54" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37" t="str">
-        <f>IF(L54="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <f>IF(G54="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B54" s="43"/>
@@ -6415,7 +6478,7 @@
       <c r="AZ54" s="47"/>
       <c r="BB54" s="23"/>
     </row>
-    <row r="55" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
       <c r="B55" s="43"/>
       <c r="C55" s="48"/>
@@ -6470,7 +6533,7 @@
       <c r="AZ55" s="47"/>
       <c r="BB55" s="23"/>
     </row>
-    <row r="56" spans="1:54" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>15</v>
       </c>
@@ -6538,6 +6601,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -6550,15 +6618,10 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
@@ -6578,15 +6641,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="26" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="26" customWidth="1"/>
     <col min="2" max="2" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
@@ -6594,7 +6657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
@@ -6602,7 +6665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
@@ -6610,12 +6673,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
